--- a/ex_04/jacobi/scripts/Jacobi.xlsx
+++ b/ex_04/jacobi/scripts/Jacobi.xlsx
@@ -603,6 +603,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="511721993"/>
@@ -764,7 +772,7 @@
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Cache hits</a:t>
+                  <a:t>Cache hits [%]</a:t>
                 </a:r>
                 <a:endParaRPr>
                   <a:solidFill>
@@ -2069,6 +2077,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="3" max="3" width="11.421875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
@@ -2091,10 +2102,12 @@
         <v>512</v>
       </c>
       <c r="C2">
-        <v>2566914000</v>
+        <f>2566914000/2566920000*100</f>
+        <v>99.999766256836992</v>
       </c>
       <c r="D2">
-        <v>2533360000</v>
+        <f>2533360000/2533367000*100</f>
+        <v>99.999723687882565</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -2106,10 +2119,12 @@
         <v>648</v>
       </c>
       <c r="C3">
-        <v>3439329000</v>
+        <f>3439329000/3439337000*100</f>
+        <v>99.999767397030297</v>
       </c>
       <c r="D3">
-        <v>1702888000</v>
+        <f>1702888000/1702892000*100</f>
+        <v>99.999765105479383</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -2121,10 +2136,12 @@
         <v>968</v>
       </c>
       <c r="C4">
-        <v>2793407000</v>
+        <f>2793407000/2793413000*100</f>
+        <v>99.999785208989863</v>
       </c>
       <c r="D4">
-        <v>2776629000</v>
+        <f>2776629000/2776637000*100</f>
+        <v>99.999711881675566</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -2136,10 +2153,12 @@
         <v>1568</v>
       </c>
       <c r="C5">
-        <v>2453668000</v>
+        <f>2453668000/2453674000*100</f>
+        <v>99.999755468737902</v>
       </c>
       <c r="D5">
-        <v>2445279000</v>
+        <f>2445279000/2445286000*100</f>
+        <v>99.999713734916895</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -2151,10 +2170,12 @@
         <v>2312</v>
       </c>
       <c r="C6">
-        <v>3812622000</v>
+        <f>3812622000/3812631000*100</f>
+        <v>99.999763942537328</v>
       </c>
       <c r="D6">
-        <v>1902115000</v>
+        <f>1902115000/1902123000*100</f>
+        <v>99.999579417314237</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -2166,10 +2187,12 @@
         <v>3200</v>
       </c>
       <c r="C7">
-        <v>2736781000</v>
+        <f>2736781000/2736790000*100</f>
+        <v>99.999671147585317</v>
       </c>
       <c r="D7">
-        <v>2732585000</v>
+        <f>2732585000/2732597000*100</f>
+        <v>99.999560857309007</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -2181,10 +2204,12 @@
         <v>5000</v>
       </c>
       <c r="C8">
-        <v>2228220000</v>
+        <f>2228220000/2228229000*100</f>
+        <v>99.999596091784099</v>
       </c>
       <c r="D8">
-        <v>2226118000</v>
+        <f>2226118000/2226133000*100</f>
+        <v>99.999326185811896</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -2196,10 +2221,12 @@
         <v>7200</v>
       </c>
       <c r="C9">
-        <v>3297756000</v>
+        <f>3297756000/3297780000*100</f>
+        <v>99.99927223768718</v>
       </c>
       <c r="D9">
-        <v>3295632000</v>
+        <f>3295632000/3295683000*100</f>
+        <v>99.998452521070746</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -2211,10 +2238,12 @@
         <v>10368</v>
       </c>
       <c r="C10">
-        <v>2429018000</v>
+        <f>2429018000/2429033000*100</f>
+        <v>99.999382470308134</v>
       </c>
       <c r="D10">
-        <v>2427699000</v>
+        <f>2427699000/2427986000*100</f>
+        <v>99.988179503506203</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -2226,10 +2255,12 @@
         <v>15488</v>
       </c>
       <c r="C11">
-        <v>3697958000</v>
+        <f>3697958000/3704107000*100</f>
+        <v>99.833995076276153</v>
       </c>
       <c r="D11">
-        <v>1847622000</v>
+        <f>1847622000/1851531000*100</f>
+        <v>99.78887742090194</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -2241,10 +2272,12 @@
         <v>22472</v>
       </c>
       <c r="C12">
-        <v>2721541000</v>
+        <f>2721541000/2729716000*100</f>
+        <v>99.700518295676176</v>
       </c>
       <c r="D12">
-        <v>2640752000</v>
+        <f>2640752000/2729195000*100</f>
+        <v>96.759374101154378</v>
       </c>
     </row>
     <row r="13" ht="14.25">
@@ -2256,10 +2289,12 @@
         <v>32768</v>
       </c>
       <c r="C13">
-        <v>2013109000</v>
+        <f>2013109000/2016551000*100</f>
+        <v>99.829312524205932</v>
       </c>
       <c r="D13">
-        <v>1794374000</v>
+        <f>1794374000/2016291000*100</f>
+        <v>88.993800994003351</v>
       </c>
     </row>
     <row r="14" ht="14.25">
@@ -2271,10 +2306,12 @@
         <v>48672</v>
       </c>
       <c r="C14">
-        <v>3026117000</v>
+        <f>3026117000/3029478000*100</f>
+        <v>99.889056794602908</v>
       </c>
       <c r="D14">
-        <v>2927740000</v>
+        <f>2927740000/3029219000*100</f>
+        <v>96.64999460256918</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -2286,10 +2323,12 @@
         <v>70688</v>
       </c>
       <c r="C15">
-        <v>2217443000</v>
+        <f>2217443000/2219385000*100</f>
+        <v>99.912498282181772</v>
       </c>
       <c r="D15">
-        <v>2145212000</v>
+        <f>2145212000/2219256000*100</f>
+        <v>96.663566528602374</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -2301,10 +2340,12 @@
         <v>103968</v>
       </c>
       <c r="C16">
-        <v>3286802000</v>
+        <f>3286802000/3288936000*100</f>
+        <v>99.93511579428727</v>
       </c>
       <c r="D16">
-        <v>1569370000</v>
+        <f>1569370000/1644405000*100</f>
+        <v>95.436951359306249</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -2316,10 +2357,12 @@
         <v>152352</v>
       </c>
       <c r="C17">
-        <v>2422162000</v>
+        <f>2422162000/2424613000*100</f>
+        <v>99.898911702609865</v>
       </c>
       <c r="D17">
-        <v>1171122000</v>
+        <f>1171122000/1212279000*100</f>
+        <v>96.60498944549893</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -2331,10 +2374,12 @@
         <v>223112</v>
       </c>
       <c r="C18">
-        <v>3564912000</v>
+        <f>3564912000/3568745000*100</f>
+        <v>99.892595296105497</v>
       </c>
       <c r="D18">
-        <v>812372000</v>
+        <f>812372000/892175500*100</f>
+        <v>91.05517916598248</v>
       </c>
     </row>
     <row r="19" ht="14.25">
@@ -2346,10 +2391,12 @@
         <v>326432</v>
       </c>
       <c r="C19">
-        <v>2619471000</v>
+        <f>2619471000/2621598000*100</f>
+        <v>99.918866279269352</v>
       </c>
       <c r="D19">
-        <v>1023626000</v>
+        <f>1023626000/1310791000*100</f>
+        <v>78.092235909462303</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -2361,10 +2408,12 @@
         <v>476288</v>
       </c>
       <c r="C20">
-        <v>1918041000</v>
+        <f>1918041000/1919107000*100</f>
+        <v>99.944453331679782</v>
       </c>
       <c r="D20">
-        <v>285670800</v>
+        <f>285670800/959550000*100</f>
+        <v>29.771330311083322</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -2376,10 +2425,12 @@
         <v>700928</v>
       </c>
       <c r="C21">
-        <v>2830774000</v>
+        <f>2830774000/2832420000*100</f>
+        <v>99.941887149504666</v>
       </c>
       <c r="D21">
-        <v>297580800</v>
+        <f>297580800/1416209000*100</f>
+        <v>21.012491800292189</v>
       </c>
     </row>
     <row r="22" ht="14.25">
@@ -2391,10 +2442,12 @@
         <v>1025312</v>
       </c>
       <c r="C22">
-        <v>2075372000</v>
+        <f>2075372000/2076488000*100</f>
+        <v>99.946255408169947</v>
       </c>
       <c r="D22">
-        <v>244068800</v>
+        <f>244068800/1038247000*100</f>
+        <v>23.507778014287545</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -2406,10 +2459,12 @@
         <v>1492992</v>
       </c>
       <c r="C23">
-        <v>3027934000</v>
+        <f>3027934000/3029451000*100</f>
+        <v>99.949924920389861</v>
       </c>
       <c r="D23">
-        <v>285043300</v>
+        <f>285043300/1514729000*100</f>
+        <v>18.818105416876548</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -2421,10 +2476,12 @@
         <v>2188232</v>
       </c>
       <c r="C24">
-        <v>2222522000</v>
+        <f>2222522000/2223672000*100</f>
+        <v>99.948283739688222</v>
       </c>
       <c r="D24">
-        <v>236522900</v>
+        <f>236522900/1111841000*100</f>
+        <v>21.273086709340632</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -2436,10 +2493,12 @@
         <v>3205512</v>
       </c>
       <c r="C25">
-        <v>3260901000</v>
+        <f>3260901000/3261767000*100</f>
+        <v>99.973449973587933</v>
       </c>
       <c r="D25">
-        <v>161136500</v>
+        <f>161136500/815445700*100</f>
+        <v>19.760543221945987</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -2451,10 +2510,12 @@
         <v>4681800</v>
       </c>
       <c r="C26">
-        <v>2382713000</v>
+        <f>2382713000/2384583000*100</f>
+        <v>99.921579580161392</v>
       </c>
       <c r="D26">
-        <v>277437200</v>
+        <f>277437200/1192296000*100</f>
+        <v>23.269154639451948</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -2466,10 +2527,12 @@
         <v>6845000</v>
       </c>
       <c r="C27">
-        <v>3488439000</v>
+        <f>3488439000/3489524000*100</f>
+        <v>99.968906934011628</v>
       </c>
       <c r="D27">
-        <v>147098600</v>
+        <f>147098600/872385400*100</f>
+        <v>16.861653117991199</v>
       </c>
     </row>
     <row r="28" ht="14.25">
@@ -2481,10 +2544,12 @@
         <v>10017288</v>
       </c>
       <c r="C28">
-        <v>2553474000</v>
+        <f>2553474000/2555282000*100</f>
+        <v>99.929244600008929</v>
       </c>
       <c r="D28">
-        <v>261257000</v>
+        <f>261257000/1277647000*100</f>
+        <v>20.44829283831919</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -2496,10 +2561,12 @@
         <v>14666528</v>
       </c>
       <c r="C29">
-        <v>1863619000</v>
+        <f>1863619000/1871784000*100</f>
+        <v>99.563785137601343</v>
       </c>
       <c r="D29">
-        <v>193125900</v>
+        <f>193125900/935900200*100</f>
+        <v>20.635309192155319</v>
       </c>
     </row>
     <row r="30" ht="14.25">
@@ -2511,10 +2578,12 @@
         <v>21438152</v>
       </c>
       <c r="C30">
-        <v>2700492000</v>
+        <f>2700492000/2737396000*100</f>
+        <v>98.651857458694323</v>
       </c>
       <c r="D30">
-        <v>116742800</v>
+        <f>116742800/684359300*100</f>
+        <v>17.058700013282497</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -2526,10 +2595,12 @@
         <v>31363200</v>
       </c>
       <c r="C31">
-        <v>1970803000</v>
+        <f>1970803000/2003202000*100</f>
+        <v>98.382639394329672</v>
       </c>
       <c r="D31">
-        <v>100735400</v>
+        <f>100735400/1001611000*100</f>
+        <v>10.057337629079553</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -2541,10 +2612,12 @@
         <v>45849888</v>
       </c>
       <c r="C32">
-        <v>2891052000</v>
+        <f>2891052000/2929506000*100</f>
+        <v>98.68735547904663</v>
       </c>
       <c r="D32">
-        <v>36958790</v>
+        <f>36958790/732386700*100</f>
+        <v>5.0463491486123386</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -2556,10 +2629,12 @@
         <v>67094528</v>
       </c>
       <c r="C33">
-        <v>2110696000</v>
+        <f>2110696000/2144070000*100</f>
+        <v>98.443427686596053</v>
       </c>
       <c r="D33">
-        <v>10472770</v>
+        <f>10472770/536023800*100</f>
+        <v>1.9537882459696752</v>
       </c>
     </row>
     <row r="35" ht="14.25"/>
